--- a/danhsachmon.xlsx
+++ b/danhsachmon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Smile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Smile_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2DA869-4D29-4D14-B883-310634DF416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F9997E-74A2-40D9-8249-40B42F9FB0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00A34F3B-FB0F-4A32-A1E3-76789ACACE47}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00A34F3B-FB0F-4A32-A1E3-76789ACACE47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="320">
   <si>
     <t>Tên tắt</t>
   </si>
@@ -189,9 +189,6 @@
     <t>CVSM</t>
   </si>
   <si>
-    <t>Khoai tây chiên</t>
-  </si>
-  <si>
     <t>XXĐ</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>Khoô bò</t>
   </si>
   <si>
-    <t>KTC1</t>
-  </si>
-  <si>
     <t>Khô gà</t>
   </si>
   <si>
@@ -528,9 +522,6 @@
     <t xml:space="preserve">Chân gà có xương sốt thái N </t>
   </si>
   <si>
-    <t>Chân gà có xương gà sả tắc N</t>
-  </si>
-  <si>
     <t>Chân gà có xương sả tắc L</t>
   </si>
   <si>
@@ -673,6 +664,6245 @@
   </si>
   <si>
     <t>Mì cay Viên Xịn</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TV"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Tokbokki thường"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>25000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"KB"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Kimbap thường"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>18000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"KBC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Kimbap chiên"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>22000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TSTTM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà sữa truyền thống (M)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TSTTL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà sữa truyền thống (L)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>28000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TSTXM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà sữa thái xanh (M)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TSTXL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà sữa thái xanh (L)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>28000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TDM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà dâu (M)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TDL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà dâu (L)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>25000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TĐM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà đào (M)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TĐL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà đào (L)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>25000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TCM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà chanh (M)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TCL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà chanh (L)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">],   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CV"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mì Cay viên xịn"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>37000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CKCV"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mì Cay Kimchi viên"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>37000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CHS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mì Cay Hải sản"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>45000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CBM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mì Cay Bò Mỹ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>45000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CKCBM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mì Cay Kimchi Bò Mỹ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>47000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"MTĐRC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mì tương đen rau củ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>35000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CXXTN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chân gà sả tắc có xương (N)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CXXTL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chân gà sả tắc có xương (L)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>65000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CXSTN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chân gà sốt thái có xương (N)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CXSTL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chân gà sốt thái có xương (L)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>65000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"RXXTN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chân gà sả tắc rút xương (N)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>35000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"RXXTL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chân gà sả tắc rút xương (L)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>70000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"RXSTN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chân gà sốt thái rút xương (N)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>35000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"RXSTL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chân gà sốt thái rút xương (L)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>70000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CST"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Cóc sốt thái"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Gan rim"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>18000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"BX"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Bắp xào"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"V"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Bò viên chiên"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"MV"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mực viên"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CVTC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Cá viên bọc trứng cút"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CVSM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Cá viên sốt mayo"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"KTCXM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Khoai tây chiên (xí muội)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>18000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"KTCPM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Khoai tây chiên (phomai)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>18000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"XXĐ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Xúc xích đức"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"PMQ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Phomai que"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>35000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>40000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>55000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB4"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 4"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>55000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"KBL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Khô bò"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>38000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">],   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"KG"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Khô gà"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>28000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"BTT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Bánh tráng trộn"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"MTĐT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mì tương đen trứng"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>35000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"THQ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Tokbokki HQ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>27000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TPM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Tokbokki phomai"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>35000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TOM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà ổi hồng (M)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TOL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà ổi hồng (L)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>25000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"XXĐT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Xx đức thêm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"XXVT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Xx thường thêm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"MIT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mì thêm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"NKCT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Nấm kim châm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"VT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Viên thêm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"KCT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Kimchi thêm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"PDT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Pudding"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CHIP"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chipchip"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"KGK"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Khô gà kí"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>320000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"KBK"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Khô bò kí"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>650000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chiên sốt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"KBT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Khô bò thêm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"KGT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Khô gà thêm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"MT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mì tokbokki"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>35000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"PMT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Phô mai thêm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CTT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chả cá thường"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CHT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chả cá hàn"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"V1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Tôm viên"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"V2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Cá viên"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB1S1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 1 sốt mắm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>45000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB1S2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 1 sốt mắm me"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>45000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB1S3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 1 sốt bơ tỏi"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>45000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB2S1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 2 sốt mắm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB2S2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 2 sốt mắm me"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB2S3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 2 sốt bơ tỏi"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB3S1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 3 sốt mắm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>65000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB3S2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 3 sốt mắm me"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>65000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB3S3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 3 sốt bơ tỏi"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>65000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trứng thêm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Coca"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Coca"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"PS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Pepsi"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"7UP"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"7 Up"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"NO"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Number One"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ST"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Sting"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"NTT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Nem tré trộn"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TVM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà vải (M)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TVL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà vải (L)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>25000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TCC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trứng cút chiên"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"MTPM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mì tokbokki phomai"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>40000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GBST"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Gân bò sốt thái"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>70000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"NS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Nước suối"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CB2ST"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Combo 2 món sốt thái"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>70000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CCRR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chả cá rau răm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CCT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Chả cá trộn"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>25000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TXM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà xoài (M)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TXL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trà xoài (L)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>25000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GSC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Gà sốt cay"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>35000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GSPM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Gà sốt phomai"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>35000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GSCPM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Gà sốt cay phủ phomai"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>40000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"GV"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Gà popcorn chiên giòn"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>27000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CKCHS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mì Cay kimchi hải sản"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>47000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CĐB"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mì Cay Đặc Biệt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>52000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>Chân gà có xương  sả tắc N</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"PTK"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Phồng tôm thêm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"KĐ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Không độ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TDT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Thạch dừa"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TCT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Trân châu trắng"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -682,7 +6912,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,6 +6940,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -719,7 +6973,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -764,11 +7018,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -803,12 +7072,20 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="19" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,19 +7401,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF3B814-7A0D-4A15-935D-D0F14B969BC6}">
-  <dimension ref="B1:F118"/>
+  <dimension ref="B1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="45.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,172 +7425,217 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D3" s="4">
         <v>25000</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>164</v>
+      <c r="F3" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D4" s="4">
         <v>18000</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="F4" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4">
+        <v>22000</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="F6" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>28000</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="F7" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <v>28000</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="F9" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="F10" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>25000</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="F11" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D12" s="4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="F12" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="4">
         <v>25000</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="F13" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="4">
         <v>12000</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="F14" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="4">
         <v>15000</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F15" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D16" s="4">
         <v>37000</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F16" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D17" s="4">
         <v>37000</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F17" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1322,8 +7645,11 @@
       <c r="D18" s="4">
         <v>45000</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
@@ -1333,8 +7659,11 @@
       <c r="D19" s="4">
         <v>47000</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
@@ -1344,8 +7673,11 @@
       <c r="D20" s="4">
         <v>45000</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F20" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
@@ -1355,8 +7687,11 @@
       <c r="D21" s="4">
         <v>47000</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F21" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1366,8 +7701,11 @@
       <c r="D22" s="4">
         <v>52000</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F22" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1377,779 +7715,991 @@
       <c r="D23" s="4">
         <v>35000</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F23" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="D24" s="4">
         <v>30000</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F24" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D25" s="4">
         <v>30000</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F25" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D26" s="4">
         <v>65000</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F26" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D27" s="4">
         <v>65000</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F27" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="4">
+        <v>35000</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="4">
+        <v>35000</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="4">
+        <v>70000</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="4">
+        <v>70000</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D32" s="4">
         <v>15000</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+      <c r="F32" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="C33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="4">
         <v>18000</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+      <c r="F33" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D34" s="4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
+      <c r="F34" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="C35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
+      <c r="F35" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D36" s="4">
         <v>12000</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
+      <c r="F36" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D37" s="4">
         <v>15000</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
+      <c r="F37" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="C38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="4">
         <v>15000</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="F38" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="4">
         <v>18000</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="F39" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="4">
         <v>18000</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
+      <c r="F40" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="4">
+      <c r="C42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="F42" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
+      <c r="C43" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="4">
+        <v>35000</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="4">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D44" s="4">
+        <v>40000</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="4">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="C45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="4">
         <v>55000</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="4">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="4">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="4">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="3" t="s">
+      <c r="F45" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="4">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D46" s="4">
         <v>55000</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F46" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="D47" s="4">
+        <v>38000</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="4">
+        <v>28000</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="4">
         <v>35000</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="F50" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="4">
+        <v>27000</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="4">
         <v>35000</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="4">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="4">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="F52" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="4">
+        <v>25000</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="6">
+        <v>5000</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="6">
+        <v>12000</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="6">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="4">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D53" s="4">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="4">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="4">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="4">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="4">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="4">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="D60" s="6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+        <v>6000</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="D61" s="6">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D62" s="6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="D63" s="6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="D64" s="6">
-        <v>6000</v>
+        <v>30000</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" s="6">
-        <v>4000</v>
+        <v>105</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="4">
+        <v>320000</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="6">
-        <v>4000</v>
-      </c>
-      <c r="F66" s="12"/>
+        <v>107</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="4">
+        <v>650000</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67" s="6">
-        <v>4000</v>
+        <v>109</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="6">
-        <v>30000</v>
+        <v>86</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="4">
+        <v>7000</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D69" s="4">
-        <v>320000</v>
+        <v>6000</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D70" s="4">
-        <v>650000</v>
+        <v>5000</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D71" s="4">
+        <v>35000</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" s="4">
-        <v>7000</v>
+      <c r="F72" s="14" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>87</v>
+      <c r="B73" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D73" s="4">
-        <v>6000</v>
+        <v>5000</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>114</v>
+      <c r="B74" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="D74" s="4">
         <v>5000</v>
       </c>
+      <c r="F74" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D75" s="4">
-        <v>35000</v>
+        <v>10000</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>186</v>
+      <c r="B76" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D76" s="4">
         <v>10000</v>
       </c>
+      <c r="F76" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>119</v>
+      <c r="B77" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="D77" s="4">
-        <v>5000</v>
+        <v>45000</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>121</v>
+      <c r="B78" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="D78" s="4">
-        <v>5000</v>
+        <v>45000</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="D79" s="4">
-        <v>10000</v>
+        <v>50000</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="D80" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D81" s="4">
+        <v>65000</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="4">
+        <v>65000</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="4">
         <v>45000</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="4">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F83" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D84" s="4">
         <v>50000</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F84" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D85" s="4">
         <v>65000</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F85" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" s="13">
+        <v>13000</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="13">
+        <v>13000</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" s="13">
+        <v>13000</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" s="13">
+        <v>13000</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D86" s="4">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="3" t="s">
+      <c r="C91" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" s="13">
+        <v>13000</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="4">
+        <v>13000</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D87" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D88" s="14">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D89" s="14">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D90" s="14">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D91" s="14">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D92" s="14">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="D93" s="4">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+        <v>50000</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
         <v>134</v>
       </c>
@@ -2157,10 +8707,13 @@
         <v>135</v>
       </c>
       <c r="D94" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
         <v>136</v>
       </c>
@@ -2168,10 +8721,13 @@
         <v>137</v>
       </c>
       <c r="D95" s="4">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+        <v>25000</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
         <v>138</v>
       </c>
@@ -2179,10 +8735,13 @@
         <v>139</v>
       </c>
       <c r="D96" s="4">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+        <v>10000</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>140</v>
       </c>
@@ -2190,193 +8749,244 @@
         <v>141</v>
       </c>
       <c r="D97" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+        <v>40000</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" s="4">
+        <v>70000</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" s="4">
+        <v>7000</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D98" s="4">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D99" s="4">
+      <c r="D100" s="4">
         <v>70000</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D100" s="4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F100" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="D101" s="4">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+        <v>20000</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D102" s="4">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+        <v>25000</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="D103" s="4">
         <v>20000</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F103" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="D104" s="4">
         <v>25000</v>
       </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F104" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="D105" s="4">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+        <v>35000</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="D106" s="4">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+        <v>35000</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D107" s="4">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D108" s="4">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="3" t="s">
+        <v>40000</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D109" s="4">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D110" s="9">
+      <c r="C108" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D108" s="9">
         <v>27000</v>
       </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="11"/>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="11"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F108" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="113" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="11"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+    </row>
+    <row r="114" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="11"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+    </row>
+    <row r="115" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="11"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+    </row>
+    <row r="116" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="11"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+    </row>
+    <row r="117" spans="2:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="11"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="11"/>
     </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>